--- a/docs/功能模块列表20190130.xlsx
+++ b/docs/功能模块列表20190130.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -917,7 +917,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1530,7 +1530,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1540,21 +1540,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="62.25" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="62.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>45</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1590,22 +1590,22 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>3</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>46</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>99</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>110</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>101</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" s="11" t="s">
         <v>4</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>48</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="17" spans="3:8" ht="27">
+    <row r="17" spans="3:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>53</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="18" spans="3:8">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>50</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="19" spans="3:8">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>51</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="20" spans="3:8">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>52</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="21" spans="3:8">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>82</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="22" spans="3:8">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>84</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="23" spans="3:8">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>112</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="24" spans="3:8">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>86</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="25" spans="3:8">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>89</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="26" spans="3:8">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>113</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="27" spans="3:8">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>98</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="28" spans="3:8">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>88</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="29" spans="3:8">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>90</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="30" spans="3:8">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>92</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="31" spans="3:8">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>93</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="32" spans="3:8">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>94</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>96</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>97</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="13.15" customHeight="1">
+    <row r="35" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>5</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="36" spans="2:8" s="2" customFormat="1">
+    <row r="36" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
         <v>75</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" s="2" customFormat="1">
+    <row r="37" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
         <v>77</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>114</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>78</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>73</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>7</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>59</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>64</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D44" s="3" t="s">
         <v>65</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>66</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>69</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D47" s="3" t="s">
         <v>70</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>71</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>63</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>3872</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>64</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D51" s="3" t="s">
         <v>65</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>66</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>69</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D54" s="3" t="s">
         <v>70</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>71</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C57" s="13" t="s">
         <v>23</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C58" s="13" t="s">
         <v>24</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59" s="13" t="s">
         <v>25</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C60" s="12" t="s">
         <v>103</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" s="12" t="s">
         <v>4</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>8</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13" t="s">
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13" t="s">
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="13"/>
       <c r="C65" s="13" t="s">
         <v>29</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13" t="s">
@@ -2391,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13" t="s">
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>36</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="13"/>
       <c r="C69" s="13" t="s">
         <v>38</v>
@@ -2430,7 +2430,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="70" spans="2:8">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>248</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="71" spans="2:8">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C71" s="13" t="s">
         <v>40</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="72" spans="2:8">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C72" s="12" t="s">
         <v>41</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C73" s="12" t="s">
         <v>10</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="74" spans="2:8">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C74" s="12" t="s">
         <v>9</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="75" spans="2:8">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>6</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="76" spans="2:8">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C76" s="12" t="s">
         <v>14</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="77" spans="2:8">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C77" s="12" t="s">
         <v>247</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="78" spans="2:8">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C78" s="12" t="s">
         <v>12</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="79" spans="2:8">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C79" s="12" t="s">
         <v>13</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="80" spans="2:8">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C80" s="12" t="s">
         <v>67</v>
       </c>
@@ -2583,11 +2583,11 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>56</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="12" t="s">
         <v>58</v>
       </c>
       <c r="G81">
@@ -2598,7 +2598,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>57</v>
       </c>
@@ -2610,11 +2610,13 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
-      <c r="C83" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C83" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F83" t="s">
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13" t="s">
         <v>61</v>
       </c>
       <c r="G83">
@@ -2625,7 +2627,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>105</v>
       </c>
@@ -2640,7 +2642,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
         <v>107</v>
       </c>
@@ -2652,7 +2654,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
         <v>108</v>
       </c>
@@ -2664,7 +2666,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>15</v>
       </c>
@@ -2679,7 +2681,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>55</v>
       </c>
@@ -2700,7 +2702,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
         <v>120</v>
       </c>
@@ -2712,7 +2714,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
         <v>119</v>
       </c>
@@ -2724,7 +2726,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>109</v>
       </c>
@@ -2736,7 +2738,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="98" spans="6:8">
+    <row r="98" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F98" t="s">
         <v>121</v>
       </c>
@@ -2749,7 +2751,7 @@
         <v>78000</v>
       </c>
     </row>
-    <row r="99" spans="6:8">
+    <row r="99" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F99" t="s">
         <v>122</v>
       </c>
@@ -2773,10 +2775,10 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:9" ht="14.45" thickBot="1"/>
-    <row r="2" spans="2:9" ht="27.75" thickBot="1">
+    <row r="1" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="s">
         <v>124</v>
       </c>
@@ -2794,7 +2796,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="14.25" thickBot="1">
+    <row r="3" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>128</v>
       </c>
@@ -2814,7 +2816,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="14.25" thickBot="1">
+    <row r="4" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
       <c r="C4" s="7"/>
       <c r="D4" s="6" t="s">
@@ -2826,7 +2828,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="2:9" ht="14.25" thickBot="1">
+    <row r="5" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8"/>
       <c r="C5" s="7"/>
       <c r="D5" s="6" t="s">
@@ -2838,7 +2840,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="2:9" ht="14.25" thickBot="1">
+    <row r="6" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="7"/>
       <c r="D6" s="6" t="s">
@@ -2850,7 +2852,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="2:9" ht="27.75" thickBot="1">
+    <row r="7" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="6" t="s">
         <v>134</v>
@@ -2866,7 +2868,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="27.75" thickBot="1">
+    <row r="8" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>135</v>
       </c>
@@ -2884,7 +2886,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="14.25" thickBot="1">
+    <row r="9" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="6" t="s">
         <v>136</v>
@@ -2900,7 +2902,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="14.25" thickBot="1">
+    <row r="10" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="6" t="s">
         <v>137</v>
@@ -2916,7 +2918,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="27.75" thickBot="1">
+    <row r="11" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="C11" s="6" t="s">
         <v>138</v>
@@ -2934,7 +2936,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="14.25" thickBot="1">
+    <row r="12" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6" t="s">
@@ -2950,7 +2952,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="54.75" thickBot="1">
+    <row r="13" spans="2:9" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
       <c r="C13" s="7"/>
       <c r="D13" s="6" t="s">
@@ -2968,7 +2970,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="41.25" thickBot="1">
+    <row r="14" spans="2:9" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="6" t="s">
         <v>133</v>
@@ -2988,7 +2990,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="27.75" thickBot="1">
+    <row r="15" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
       <c r="C15" s="7"/>
       <c r="D15" s="6" t="s">
@@ -3006,7 +3008,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="14.25" thickBot="1">
+    <row r="16" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" s="7"/>
       <c r="D16" s="6" t="s">
@@ -3024,7 +3026,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="122.25" thickBot="1">
+    <row r="17" spans="2:9" ht="124.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -3042,7 +3044,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="27.75" thickBot="1">
+    <row r="18" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -3058,7 +3060,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="54.75" thickBot="1">
+    <row r="19" spans="2:9" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -3076,7 +3078,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="14.25" thickBot="1">
+    <row r="20" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -3092,7 +3094,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="14.25" thickBot="1">
+    <row r="21" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8"/>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
@@ -3110,7 +3112,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="14.25" thickBot="1">
+    <row r="22" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -3126,7 +3128,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="14.25" thickBot="1">
+    <row r="23" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -3142,7 +3144,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="27.75" thickBot="1">
+    <row r="24" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="8"/>
       <c r="C24" s="7"/>
       <c r="D24" s="6" t="s">
@@ -3160,7 +3162,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="27.75" thickBot="1">
+    <row r="25" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="8"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -3176,7 +3178,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="41.25" thickBot="1">
+    <row r="26" spans="2:9" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="8"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -3192,7 +3194,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="41.25" thickBot="1">
+    <row r="27" spans="2:9" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="8"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -3208,7 +3210,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="27.75" thickBot="1">
+    <row r="28" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="8"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -3224,7 +3226,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="27.75" thickBot="1">
+    <row r="29" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="8"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -3242,7 +3244,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="14.25" thickBot="1">
+    <row r="30" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="8"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -3258,7 +3260,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="14.25" thickBot="1">
+    <row r="31" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="8"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -3274,7 +3276,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="27.75" thickBot="1">
+    <row r="32" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -3292,7 +3294,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="14.25" thickBot="1">
+    <row r="33" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="8"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -3308,7 +3310,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="14.25" thickBot="1">
+    <row r="34" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="8"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -3324,7 +3326,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="14.25" thickBot="1">
+    <row r="35" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="8"/>
       <c r="C35" s="6" t="s">
         <v>172</v>
@@ -3342,7 +3344,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="54.75" thickBot="1">
+    <row r="36" spans="2:9" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="8"/>
       <c r="C36" s="7"/>
       <c r="D36" s="9" t="s">
@@ -3358,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="14.25" thickBot="1">
+    <row r="37" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
       <c r="C37" s="7"/>
       <c r="D37" s="9" t="s">
@@ -3374,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="14.25" thickBot="1">
+    <row r="38" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="8"/>
       <c r="C38" s="7"/>
       <c r="D38" s="6" t="s">
@@ -3390,7 +3392,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="14.25" thickBot="1">
+    <row r="39" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="8"/>
       <c r="C39" s="7"/>
       <c r="D39" s="6" t="s">
@@ -3406,7 +3408,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="14.25" thickBot="1">
+    <row r="40" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
       <c r="C40" s="7"/>
       <c r="D40" s="6" t="s">
@@ -3422,7 +3424,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="27.75" thickBot="1">
+    <row r="41" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8"/>
       <c r="C41" s="6" t="s">
         <v>180</v>
@@ -3442,7 +3444,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="54.75" thickBot="1">
+    <row r="42" spans="2:9" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="8"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -3460,7 +3462,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="14.25" thickBot="1">
+    <row r="43" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="8"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -3476,7 +3478,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="27.75" thickBot="1">
+    <row r="44" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="8"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="14.25" thickBot="1">
+    <row r="45" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="8"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -3508,7 +3510,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="14.25" thickBot="1">
+    <row r="46" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="8"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -3524,7 +3526,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="27.75" thickBot="1">
+    <row r="47" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="8"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -3538,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="14.25" thickBot="1">
+    <row r="48" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="8"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -3554,7 +3556,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="27.75" thickBot="1">
+    <row r="49" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="8"/>
       <c r="C49" s="7"/>
       <c r="D49" s="6" t="s">
@@ -3572,7 +3574,7 @@
         <v>3872</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="14.25" thickBot="1">
+    <row r="50" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="8"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -3588,7 +3590,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="27.75" thickBot="1">
+    <row r="51" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="8"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -3602,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="14.25" thickBot="1">
+    <row r="52" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -3620,7 +3622,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="14.25" thickBot="1">
+    <row r="53" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="8"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -3636,7 +3638,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="27.75" thickBot="1">
+    <row r="54" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="8"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -3650,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="14.25" thickBot="1">
+    <row r="55" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="8"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -3666,7 +3668,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="27.75" thickBot="1">
+    <row r="56" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="5" t="s">
         <v>190</v>
       </c>
@@ -3686,7 +3688,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="27.75" thickBot="1">
+    <row r="57" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="8"/>
       <c r="C57" s="7"/>
       <c r="D57" s="6" t="s">
@@ -3700,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="27.75" thickBot="1">
+    <row r="58" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="8"/>
       <c r="C58" s="7"/>
       <c r="D58" s="6" t="s">
@@ -3714,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="41.25" thickBot="1">
+    <row r="59" spans="2:9" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="8"/>
       <c r="C59" s="7"/>
       <c r="D59" s="6" t="s">
@@ -3730,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="95.25" thickBot="1">
+    <row r="60" spans="2:9" ht="97.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="8"/>
       <c r="C60" s="7"/>
       <c r="D60" s="6" t="s">
@@ -3746,7 +3748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="41.25" thickBot="1">
+    <row r="61" spans="2:9" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="8"/>
       <c r="C61" s="7"/>
       <c r="D61" s="6" t="s">
@@ -3762,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="14.25" thickBot="1">
+    <row r="62" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="8"/>
       <c r="C62" s="6" t="s">
         <v>200</v>
@@ -3782,7 +3784,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="14.25" thickBot="1">
+    <row r="63" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="8"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -3796,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="14.25" thickBot="1">
+    <row r="64" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="8"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -3810,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="14.25" thickBot="1">
+    <row r="65" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="8"/>
       <c r="C65" s="7"/>
       <c r="D65" s="6" t="s">
@@ -3826,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="14.25" thickBot="1">
+    <row r="66" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="8"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="14.25" thickBot="1">
+    <row r="67" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="8"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -3854,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="27.75" thickBot="1">
+    <row r="68" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="8"/>
       <c r="C68" s="6" t="s">
         <v>209</v>
@@ -3872,7 +3874,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="27.75" thickBot="1">
+    <row r="69" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="8"/>
       <c r="C69" s="7"/>
       <c r="D69" s="6" t="s">
@@ -3888,7 +3890,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="14.25" thickBot="1">
+    <row r="70" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="8"/>
       <c r="C70" s="6" t="s">
         <v>212</v>
@@ -3906,7 +3908,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="54.75" thickBot="1">
+    <row r="71" spans="2:9" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="8"/>
       <c r="C71" s="7"/>
       <c r="D71" s="6" t="s">
@@ -3924,7 +3926,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="27.75" thickBot="1">
+    <row r="72" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="8"/>
       <c r="C72" s="7"/>
       <c r="D72" s="6" t="s">
@@ -3940,7 +3942,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="41.25" thickBot="1">
+    <row r="73" spans="2:9" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="8"/>
       <c r="C73" s="7"/>
       <c r="D73" s="6" t="s">
@@ -3958,7 +3960,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="14.25" thickBot="1">
+    <row r="74" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="8"/>
       <c r="C74" s="7"/>
       <c r="D74" s="6" t="s">
@@ -3974,7 +3976,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="14.25" thickBot="1">
+    <row r="75" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="8"/>
       <c r="C75" s="6" t="s">
         <v>220</v>
@@ -3992,7 +3994,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="14.25" thickBot="1">
+    <row r="76" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="8"/>
       <c r="C76" s="7"/>
       <c r="D76" s="6" t="s">
@@ -4008,7 +4010,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="14.25" thickBot="1">
+    <row r="77" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="8"/>
       <c r="C77" s="7"/>
       <c r="D77" s="6" t="s">
@@ -4024,7 +4026,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="14.25" thickBot="1">
+    <row r="78" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="8"/>
       <c r="C78" s="7"/>
       <c r="D78" s="6" t="s">
@@ -4040,7 +4042,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="27.75" thickBot="1">
+    <row r="79" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="8"/>
       <c r="C79" s="7"/>
       <c r="D79" s="6" t="s">
@@ -4056,7 +4058,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="27.75" thickBot="1">
+    <row r="80" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="8"/>
       <c r="C80" s="7"/>
       <c r="D80" s="6" t="s">
@@ -4074,7 +4076,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="27.75" thickBot="1">
+    <row r="81" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="8"/>
       <c r="C81" s="6" t="s">
         <v>227</v>
@@ -4092,7 +4094,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="14.25" thickBot="1">
+    <row r="82" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="8"/>
       <c r="C82" s="7"/>
       <c r="D82" s="6" t="s">
@@ -4108,7 +4110,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="27.75" thickBot="1">
+    <row r="83" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="8"/>
       <c r="C83" s="7"/>
       <c r="D83" s="6" t="s">
@@ -4126,7 +4128,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="27.75" thickBot="1">
+    <row r="84" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="8"/>
       <c r="C84" s="7"/>
       <c r="D84" s="6" t="s">
@@ -4144,7 +4146,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="14.25" thickBot="1">
+    <row r="85" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="8"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -4160,7 +4162,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="14.25" thickBot="1">
+    <row r="86" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="8"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -4176,7 +4178,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="27.75" thickBot="1">
+    <row r="87" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="8"/>
       <c r="C87" s="6" t="s">
         <v>234</v>
@@ -4194,7 +4196,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="27.75" thickBot="1">
+    <row r="88" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="8"/>
       <c r="C88" s="6" t="s">
         <v>236</v>
@@ -4216,7 +4218,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="27.75" thickBot="1">
+    <row r="89" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="8"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -4232,7 +4234,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="27.75" thickBot="1">
+    <row r="90" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="8"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -4248,7 +4250,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="27.75" thickBot="1">
+    <row r="91" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="5" t="s">
         <v>242</v>
       </c>
@@ -4264,7 +4266,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="14.25" thickBot="1">
+    <row r="92" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="8"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -4274,7 +4276,7 @@
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
     </row>
-    <row r="93" spans="2:9" ht="14.25" thickBot="1">
+    <row r="93" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="8"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -4284,7 +4286,7 @@
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
     </row>
-    <row r="94" spans="2:9" ht="27.75" thickBot="1">
+    <row r="94" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="8"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -4300,7 +4302,7 @@
         <v>78000</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="41.25" thickBot="1">
+    <row r="95" spans="2:9" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="8"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>

--- a/docs/功能模块列表20190130.xlsx
+++ b/docs/功能模块列表20190130.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1057,7 +1057,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1068,25 +1068,25 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="62.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="62.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="D1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1105,27 +1105,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="C4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="C5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="B7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1133,17 +1133,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:6">
+      <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:6">
+      <c r="B10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="B11" t="s">
         <v>97</v>
       </c>
@@ -1151,12 +1151,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="C12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="C13" t="s">
         <v>99</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="C15" s="4" t="s">
         <v>4</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="C16" t="s">
         <v>48</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" ht="27">
       <c r="D17" t="s">
         <v>53</v>
       </c>
@@ -1199,12 +1199,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6">
       <c r="D18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6">
       <c r="D19" t="s">
         <v>51</v>
       </c>
@@ -1212,12 +1212,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6">
       <c r="D20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6">
       <c r="C21" t="s">
         <v>81</v>
       </c>
@@ -1225,17 +1225,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6">
       <c r="D22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6">
       <c r="D23" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6">
       <c r="C24" t="s">
         <v>84</v>
       </c>
@@ -1243,27 +1243,27 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6">
       <c r="D25" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6">
       <c r="D26" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6">
       <c r="D27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6">
       <c r="D28" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:6">
       <c r="D29" t="s">
         <v>88</v>
       </c>
@@ -1271,17 +1271,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:6">
       <c r="E30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:6">
       <c r="E31" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:6">
       <c r="D32" t="s">
         <v>92</v>
       </c>
@@ -1289,17 +1289,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6">
       <c r="E33" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6">
       <c r="E34" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" ht="13.15" customHeight="1">
       <c r="B35" t="s">
         <v>5</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" s="2" customFormat="1">
       <c r="C36" s="2" t="s">
         <v>74</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" s="2" customFormat="1">
       <c r="C37" s="2" t="s">
         <v>76</v>
       </c>
@@ -1323,22 +1323,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6">
       <c r="C38" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6">
       <c r="C39" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6">
       <c r="C40" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6">
       <c r="B41" t="s">
         <v>7</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6">
       <c r="D42" t="s">
         <v>58</v>
       </c>
@@ -1357,17 +1357,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6">
       <c r="D43" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6">
       <c r="D44" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6">
       <c r="D45" t="s">
         <v>65</v>
       </c>
@@ -1375,22 +1375,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6">
       <c r="D46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6">
       <c r="D47" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6">
       <c r="D48" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="C49" t="s">
         <v>62</v>
       </c>
@@ -1398,17 +1398,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="D50" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="D51" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="D52" t="s">
         <v>65</v>
       </c>
@@ -1416,22 +1416,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="D53" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="D54" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="D55" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="C57" s="6" t="s">
         <v>23</v>
       </c>
@@ -1453,7 +1453,7 @@
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="C58" s="6" t="s">
         <v>24</v>
       </c>
@@ -1461,7 +1461,7 @@
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="C59" s="6" t="s">
         <v>25</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="C60" s="5" t="s">
         <v>101</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="C61" s="5" t="s">
         <v>4</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="B62" s="5" t="s">
         <v>8</v>
       </c>
@@ -1502,21 +1502,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6">
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
         <v>29</v>
@@ -1525,21 +1525,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6">
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6">
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6">
       <c r="B68" s="5" t="s">
         <v>36</v>
       </c>
@@ -1547,13 +1547,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6">
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6">
       <c r="B70" s="5" t="s">
         <v>124</v>
       </c>
@@ -1564,7 +1564,7 @@
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6">
       <c r="C71" s="6" t="s">
         <v>40</v>
       </c>
@@ -1574,12 +1574,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6">
       <c r="C72" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6">
       <c r="C73" s="5" t="s">
         <v>10</v>
       </c>
@@ -1589,12 +1589,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6">
       <c r="C74" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6">
       <c r="B75" s="5" t="s">
         <v>6</v>
       </c>
@@ -1602,27 +1602,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6">
       <c r="C76" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6">
       <c r="C77" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6">
       <c r="C78" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6">
       <c r="C79" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6">
       <c r="C80" s="5" t="s">
         <v>66</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="B81" t="s">
         <v>55</v>
       </c>
@@ -1638,12 +1638,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="C82" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="C83" s="5" t="s">
         <v>59</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="C84" s="5" t="s">
         <v>103</v>
       </c>
@@ -1661,19 +1661,19 @@
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="C85" s="6"/>
       <c r="D85" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="C86" s="6"/>
       <c r="D86" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="B87" s="5" t="s">
         <v>15</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="B88" s="5" t="s">
         <v>125</v>
       </c>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="F89" s="6"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -1717,17 +1717,17 @@
       </c>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:6">
       <c r="F98" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:6">
       <c r="F99" t="s">
         <v>120</v>
       </c>
@@ -1747,7 +1747,7 @@
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
